--- a/biology/Botanique/Passiflora_tripartita_var._mollissima/Passiflora_tripartita_var._mollissima.xlsx
+++ b/biology/Botanique/Passiflora_tripartita_var._mollissima/Passiflora_tripartita_var._mollissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passiflora tripartita var. mollissima  est une variété de plantes à fleurs de la famille des Passifloraceae, de l'espèce Passiflora tripartita, nommée « curuba » en français.
 C'est une plante grimpante. Elle pousse accrochée sur les arbres ou sur les murs, jusqu'à l'altitude de 3 500 m, ou plus si le climat est favorable (rives du lac Titicaca, par exemple).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont roses, à environ 10 pétales.
 Ses fruits allongés, verts avant maturité et jaune-orangé à maturité, contiennent des graines enveloppées d'un mucilage comestible, translucide, rouge orangé, aromatique. On les consomme tels quels ; ils servent aussi à parfumer les glaces, les boissons, les pâtisseries. On leur prête des vertus médicinales.
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tacsonia mollissima Kunth
 Passiflora mollissima (Kunth) L.H.Bailey
@@ -578,7 +594,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La curuba est cultivée pour son fruit dans les Andes (Amérique du Sud), au Brésil. On en trouve aussi à Madère.
 Les californiens l'utilisent comme plante grimpante décorative, elle peut couvrir 10 m de rayon autour d'elle. Sa rusticité est USDA 10 a, elle supporte des petits gels brefs.
